--- a/www/terminologies/ASS-A28-TypeDiplome-Diplome-Profession-EPARS.xlsx
+++ b/www/terminologies/ASS-A28-TypeDiplome-Diplome-Profession-EPARS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="104">
   <si>
     <t>Property</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Publisher</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>France</t>
   </si>
   <si>
     <t>Description</t>
@@ -455,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -555,20 +561,28 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>23</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -586,178 +600,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>24</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>22</v>
-      </c>
       <c r="E1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -776,685 +790,685 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>24</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>22</v>
-      </c>
       <c r="E1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2"/>
     </row>
@@ -1473,61 +1487,61 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>24</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>22</v>
-      </c>
       <c r="E1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -1546,126 +1560,126 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>24</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>22</v>
-      </c>
       <c r="E1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E9" s="2"/>
     </row>

--- a/www/terminologies/ASS-A28-TypeDiplome-Diplome-Profession-EPARS.xlsx
+++ b/www/terminologies/ASS-A28-TypeDiplome-Diplome-Profession-EPARS.xlsx
@@ -105,13 +105,13 @@
     <t>Relationship</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R14-TypeDiplome/FHIR/TRE-R14-TypeDiplome</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R14-TypeDiplome/FHIR/TRE-R14-TypeDiplome|20240329120000</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R48-DiplomeEtatFrancais/FHIR/TRE-R48-DiplomeEtatFrancais</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R48-DiplomeEtatFrancais/FHIR/TRE-R48-DiplomeEtatFrancais|20250425120000</t>
   </si>
   <si>
     <t>DE</t>
@@ -156,7 +156,7 @@
     <t>DIP413</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R58-AutreTypeDiplome/FHIR/TRE-R58-AutreTypeDiplome</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R58-AutreTypeDiplome/FHIR/TRE-R58-AutreTypeDiplome|20251222120000</t>
   </si>
   <si>
     <t>AU</t>
@@ -294,7 +294,7 @@
     <t>DIP412</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R56-Attestation/FHIR/TRE-R56-Attestation</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R56-Attestation/FHIR/TRE-R56-Attestation|20240329120000</t>
   </si>
   <si>
     <t>ATT</t>
@@ -306,7 +306,7 @@
     <t>DIP366</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R54-DiplomeUniversiteInterUniversitaire/FHIR/TRE-R54-DiplomeUniversiteInterUniversitaire</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R54-DiplomeUniversiteInterUniversitaire/FHIR/TRE-R54-DiplomeUniversiteInterUniversitaire|20240726120000</t>
   </si>
   <si>
     <t>DIP351</t>
